--- a/data/trans_orig/P13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4524</v>
+        <v>5016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18582</v>
+        <v>19358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02017454875556037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009157541828297144</v>
+        <v>0.0101516725629691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03761137157761109</v>
+        <v>0.03918197905473098</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5945</v>
+        <v>6613</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20212</v>
+        <v>20137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02542021309943806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01271653906081092</v>
+        <v>0.01414630498593437</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04323515987835985</v>
+        <v>0.04307507542150223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>21851</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13296</v>
+        <v>13021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31751</v>
+        <v>33239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02272489279796503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01382725601761858</v>
+        <v>0.01354120192808944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03302016959233821</v>
+        <v>0.03456841515280569</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>484096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475482</v>
+        <v>474706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489540</v>
+        <v>489048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9798254512444396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9623886284223889</v>
+        <v>0.9608180209452689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.990842458171703</v>
+        <v>0.9898483274370309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>477</v>
@@ -836,19 +836,19 @@
         <v>455605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447277</v>
+        <v>447352</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461544</v>
+        <v>460876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9745797869005619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9567648401216401</v>
+        <v>0.9569249245784978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9872834609391891</v>
+        <v>0.9858536950140657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>967</v>
@@ -857,19 +857,19 @@
         <v>939702</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929802</v>
+        <v>928314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>948257</v>
+        <v>948532</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9772751072020349</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9669798304076618</v>
+        <v>0.9654315848471945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9861727439823808</v>
+        <v>0.9864587980719109</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>9275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4065</v>
+        <v>4448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17237</v>
+        <v>17007</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01261122301688156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005526799050863654</v>
+        <v>0.006047767478584679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02343639557382772</v>
+        <v>0.02312278810641179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -982,19 +982,19 @@
         <v>15060</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7938</v>
+        <v>8224</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24714</v>
+        <v>25420</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02407699143195214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01269003213526439</v>
+        <v>0.01314769543679044</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03951057003587841</v>
+        <v>0.04064047224496384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>24335</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15598</v>
+        <v>15271</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35383</v>
+        <v>36273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01788077471782312</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0114608913250415</v>
+        <v>0.01122028750007999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02599824592107326</v>
+        <v>0.02665215665437694</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>726214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>718252</v>
+        <v>718482</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>731424</v>
+        <v>731041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9873887769831184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9765636044261723</v>
+        <v>0.9768772118935882</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944732009491364</v>
+        <v>0.9939522325214154</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>577</v>
@@ -1053,19 +1053,19 @@
         <v>610434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>600780</v>
+        <v>600074</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>617556</v>
+        <v>617270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9759230085680478</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9604894299641217</v>
+        <v>0.9593595277550366</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9873099678647357</v>
+        <v>0.9868523045632096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1271</v>
@@ -1074,19 +1074,19 @@
         <v>1336647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1325599</v>
+        <v>1324709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1345384</v>
+        <v>1345711</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9821192252821769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9740017540789269</v>
+        <v>0.9733478433456231</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.988539108674959</v>
+        <v>0.9887797124999201</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16526</v>
+        <v>16927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37745</v>
+        <v>37747</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04056015316273889</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02587625907285261</v>
+        <v>0.02650391626422985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05909884875529826</v>
+        <v>0.05910334363976642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>22319</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14385</v>
+        <v>14857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33080</v>
+        <v>33061</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03235771942362251</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02085525223230857</v>
+        <v>0.02153964757287147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04796027690239439</v>
+        <v>0.04793237563342545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1220,19 +1220,19 @@
         <v>48223</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35221</v>
+        <v>36640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64423</v>
+        <v>64979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03630124686312692</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0265133965619646</v>
+        <v>0.02758207018332058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04849642719547196</v>
+        <v>0.04891505506054356</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>612764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600923</v>
+        <v>600921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>622142</v>
+        <v>621741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9594398468372611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9409011512447016</v>
+        <v>0.9408966563602336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9741237409271474</v>
+        <v>0.97349608373577</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>637</v>
@@ -1270,19 +1270,19 @@
         <v>667425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>656664</v>
+        <v>656683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>675359</v>
+        <v>674887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9676422805763775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9520397230976055</v>
+        <v>0.9520676243665744</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9791447477676914</v>
+        <v>0.9784603524271284</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1227</v>
@@ -1291,19 +1291,19 @@
         <v>1280189</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1263989</v>
+        <v>1263433</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1293191</v>
+        <v>1291772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.963698753136873</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.951503572804528</v>
+        <v>0.9510849449394564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9734866034380354</v>
+        <v>0.9724179298166794</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>7424</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3009</v>
+        <v>2837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16230</v>
+        <v>15713</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01430120936297488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005795787891434931</v>
+        <v>0.005465155541113986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03126238505918136</v>
+        <v>0.03026637424616574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>20880</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12428</v>
+        <v>13214</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30552</v>
+        <v>30521</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04049417701700413</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02410284754477946</v>
+        <v>0.02562705805447864</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05925008403530422</v>
+        <v>0.05919107196410619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1437,19 +1437,19 @@
         <v>28305</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18775</v>
+        <v>19598</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40394</v>
+        <v>40440</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02735333258556922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01814335425962945</v>
+        <v>0.01893927453719193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03903591020323324</v>
+        <v>0.03908070431443604</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>511723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>502917</v>
+        <v>503434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>516138</v>
+        <v>516310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9856987906370251</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9687376149408189</v>
+        <v>0.9697336257538344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9942042121085651</v>
+        <v>0.9945348444588861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>482</v>
@@ -1487,19 +1487,19 @@
         <v>494762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>485090</v>
+        <v>485121</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>503214</v>
+        <v>502428</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9595058229829959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9407499159646957</v>
+        <v>0.9408089280358937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9758971524552205</v>
+        <v>0.9743729419455213</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>959</v>
@@ -1508,19 +1508,19 @@
         <v>1006484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>994395</v>
+        <v>994349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1016014</v>
+        <v>1015191</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9726466674144307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9609640897967666</v>
+        <v>0.960919295685564</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9818566457403703</v>
+        <v>0.9810607254628081</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12688</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6902</v>
+        <v>6613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21550</v>
+        <v>20932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03280934183352689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0178474408144305</v>
+        <v>0.01710065981045882</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0557260416237257</v>
+        <v>0.0541272399200989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1633,19 +1633,19 @@
         <v>21374</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13802</v>
+        <v>13974</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31296</v>
+        <v>31359</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05290844995179264</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03416531397328239</v>
+        <v>0.03458940884968659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07746751135195173</v>
+        <v>0.07762363761564312</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1654,19 +1654,19 @@
         <v>34062</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23502</v>
+        <v>24337</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46430</v>
+        <v>47638</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04307846893725517</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02972273450415615</v>
+        <v>0.03077874061892548</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05872027241860216</v>
+        <v>0.06024845902885971</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>374022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>365160</v>
+        <v>365778</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>379808</v>
+        <v>380097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9671906581664731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9442739583762744</v>
+        <v>0.9458727600799011</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9821525591855697</v>
+        <v>0.9828993401895412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>375</v>
@@ -1704,19 +1704,19 @@
         <v>382612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>372690</v>
+        <v>372627</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>390184</v>
+        <v>390012</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9470915500482073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9225324886480485</v>
+        <v>0.9223763623843569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9658346860267176</v>
+        <v>0.9654105911503136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>754</v>
@@ -1725,19 +1725,19 @@
         <v>756634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>744266</v>
+        <v>743058</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>767194</v>
+        <v>766359</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9569215310627448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9412797275813979</v>
+        <v>0.9397515409711403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9702772654958439</v>
+        <v>0.9692212593810746</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>18052</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11419</v>
+        <v>11347</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27886</v>
+        <v>27202</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06169977719281724</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03902679980794176</v>
+        <v>0.03878158508238221</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09530871965758182</v>
+        <v>0.09297265415382772</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1850,19 +1850,19 @@
         <v>29472</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20761</v>
+        <v>19978</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41559</v>
+        <v>39466</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08594204631602337</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06053862518383756</v>
+        <v>0.05825669172795265</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1211862842461526</v>
+        <v>0.115082767173032</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1871,19 +1871,19 @@
         <v>47525</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35341</v>
+        <v>36920</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60322</v>
+        <v>62870</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07478124992392418</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05561031663531778</v>
+        <v>0.05809368009018024</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0949173733961773</v>
+        <v>0.09892770969993313</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>274531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264697</v>
+        <v>265381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281164</v>
+        <v>281236</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9383002228071827</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9046912803424181</v>
+        <v>0.9070273458461723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9609732001920582</v>
+        <v>0.9612184149176178</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1921,19 +1921,19 @@
         <v>313462</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>301375</v>
+        <v>303468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322173</v>
+        <v>322956</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9140579536839767</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8788137157538474</v>
+        <v>0.8849172328269678</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9394613748161623</v>
+        <v>0.9417433082720473</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>625</v>
@@ -1942,19 +1942,19 @@
         <v>587992</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>575195</v>
+        <v>572647</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>600176</v>
+        <v>598597</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9252187500760758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9050826266038227</v>
+        <v>0.901072290300067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9443896833646817</v>
+        <v>0.9419063199098199</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>21099</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14294</v>
+        <v>12593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31685</v>
+        <v>30587</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1005277237065665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06810234890935003</v>
+        <v>0.05999896422386817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1509655613715963</v>
+        <v>0.14573312293087</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2067,19 +2067,19 @@
         <v>42903</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31130</v>
+        <v>31974</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57270</v>
+        <v>57152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1284880798902651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09322900013946316</v>
+        <v>0.09575559469903765</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1715151852618318</v>
+        <v>0.1711598397112168</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -2088,19 +2088,19 @@
         <v>64002</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50982</v>
+        <v>48681</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80468</v>
+        <v>81259</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1176964271481011</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09375304574782027</v>
+        <v>0.08952193112632738</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.147975089932403</v>
+        <v>0.149429836975948</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>188784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>178198</v>
+        <v>179296</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195589</v>
+        <v>197290</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8994722762934335</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8490344386284039</v>
+        <v>0.8542668770691298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9318976510906501</v>
+        <v>0.9400010357761318</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>253</v>
@@ -2138,19 +2138,19 @@
         <v>291005</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>276638</v>
+        <v>276756</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>302778</v>
+        <v>301934</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8715119201097349</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8284848147381685</v>
+        <v>0.8288401602887834</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9067709998605369</v>
+        <v>0.9042444053009624</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>452</v>
@@ -2159,19 +2159,19 @@
         <v>479789</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>463323</v>
+        <v>462532</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>492809</v>
+        <v>495110</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8823035728518989</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8520249100675971</v>
+        <v>0.8505701630240521</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9062469542521798</v>
+        <v>0.9104780688736727</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>104411</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03186616967076493</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>156</v>
@@ -2284,19 +2284,19 @@
         <v>163893</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04850047052032394</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>256</v>
@@ -2305,19 +2305,19 @@
         <v>268304</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04031159862993554</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3172132</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3150836</v>
+        <v>3149475</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3190728</v>
+        <v>3192217</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9681338303292351</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9616341416307379</v>
+        <v>0.9612188224286891</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9738091347281097</v>
+        <v>0.9742637159327741</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3141</v>
@@ -2355,19 +2355,19 @@
         <v>3215304</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3186622</v>
+        <v>3184802</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3237424</v>
+        <v>3235802</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9514995294796761</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9430116161111994</v>
+        <v>0.9424730507267643</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9580454088304079</v>
+        <v>0.9575653920634836</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6255</v>
@@ -2376,19 +2376,19 @@
         <v>6387437</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6352829</v>
+        <v>6351600</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6419239</v>
+        <v>6421512</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9596884013700645</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9544886018100666</v>
+        <v>0.9543040056894516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9644664042561176</v>
+        <v>0.9648079335209883</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>11355</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5378</v>
+        <v>5949</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18855</v>
+        <v>19657</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02500363418445743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01184265683695102</v>
+        <v>0.01309916335489657</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04151835833683176</v>
+        <v>0.04328290874236759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2744,19 +2744,19 @@
         <v>8680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3973</v>
+        <v>3959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17380</v>
+        <v>16276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02017641658769753</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009233800823371597</v>
+        <v>0.009202891243170374</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04039775031721844</v>
+        <v>0.03783186101602183</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2765,19 +2765,19 @@
         <v>20036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12618</v>
+        <v>12216</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30564</v>
+        <v>30208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02265529707058106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01426813312330182</v>
+        <v>0.01381300792657224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03455971630019838</v>
+        <v>0.03415788235742022</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>442791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>435291</v>
+        <v>434489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448768</v>
+        <v>448197</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9749963658155426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9584816416631682</v>
+        <v>0.9567170912576323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9881573431630488</v>
+        <v>0.9869008366451033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>413</v>
@@ -2815,19 +2815,19 @@
         <v>421550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>412850</v>
+        <v>413954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>426257</v>
+        <v>426271</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9798235834123025</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9596022496827817</v>
+        <v>0.962168138983978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9907661991766284</v>
+        <v>0.9907971087568296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>848</v>
@@ -2836,19 +2836,19 @@
         <v>864340</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>853812</v>
+        <v>854168</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>871758</v>
+        <v>872160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9773447029294189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9654402836998016</v>
+        <v>0.9658421176425797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9857318668766981</v>
+        <v>0.9861869920734277</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>15751</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8816</v>
+        <v>8760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25872</v>
+        <v>25688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02292446520136572</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01283025940297942</v>
+        <v>0.01274913918517849</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03765504214331845</v>
+        <v>0.03738652369778406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2961,19 +2961,19 @@
         <v>24632</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16639</v>
+        <v>16192</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35412</v>
+        <v>37318</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04042510748859909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02730714599633783</v>
+        <v>0.02657371477583736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05811740420309762</v>
+        <v>0.06124467973400995</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -2982,19 +2982,19 @@
         <v>40383</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28471</v>
+        <v>29611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54706</v>
+        <v>55267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03114988613550337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.021961748008953</v>
+        <v>0.02284050651669232</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0421979955713003</v>
+        <v>0.04263101783949374</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>671336</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>661215</v>
+        <v>661399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>678271</v>
+        <v>678327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9770755347986343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9623449578566814</v>
+        <v>0.9626134763022157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9871697405970206</v>
+        <v>0.9872508608148214</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -3032,19 +3032,19 @@
         <v>584688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>573908</v>
+        <v>572002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>592681</v>
+        <v>593128</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9595748925114009</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9418825957969023</v>
+        <v>0.9387553202659901</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9726928540036621</v>
+        <v>0.9734262852241623</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1200</v>
@@ -3053,19 +3053,19 @@
         <v>1256024</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1241701</v>
+        <v>1241140</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1267936</v>
+        <v>1266796</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9688501138644966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9578020044286998</v>
+        <v>0.9573689821605063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.978038251991047</v>
+        <v>0.9771594934833076</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>28152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17884</v>
+        <v>18872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39810</v>
+        <v>40651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04134450783838461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02626480709913299</v>
+        <v>0.0277159355763232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0584650447216486</v>
+        <v>0.05970039738430385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3178,19 +3178,19 @@
         <v>46802</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34712</v>
+        <v>34163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62989</v>
+        <v>63514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06593437362440922</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04890220775064011</v>
+        <v>0.04812828324233576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08873884190913361</v>
+        <v>0.089477855376452</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -3199,19 +3199,19 @@
         <v>74954</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59964</v>
+        <v>59225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94456</v>
+        <v>93663</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05389506146049915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04311655590215185</v>
+        <v>0.04258529639674404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06791741212871082</v>
+        <v>0.06734721752369489</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>652764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>641106</v>
+        <v>640265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663032</v>
+        <v>662044</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9586554921616154</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9415349552783516</v>
+        <v>0.9402996026156958</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9737351929008672</v>
+        <v>0.9722840644236763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>623</v>
@@ -3249,19 +3249,19 @@
         <v>663028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>646841</v>
+        <v>646316</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>675118</v>
+        <v>675667</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9340656263755908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9112611580908663</v>
+        <v>0.9105221446235477</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9510977922493599</v>
+        <v>0.951871716757664</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1246</v>
@@ -3270,19 +3270,19 @@
         <v>1315792</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1296290</v>
+        <v>1297083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1330782</v>
+        <v>1331521</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9461049385395008</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9320825878712892</v>
+        <v>0.9326527824763049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9568834440978481</v>
+        <v>0.9574147036032559</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>26075</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16458</v>
+        <v>16516</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39132</v>
+        <v>38819</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04242408362481303</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02677768071717598</v>
+        <v>0.02687138517594891</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06366859692154671</v>
+        <v>0.0631594254345703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3395,19 +3395,19 @@
         <v>52224</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39677</v>
+        <v>38666</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69060</v>
+        <v>66889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08475176860991057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06438932689308619</v>
+        <v>0.06274844574777627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1120743321798521</v>
+        <v>0.1085502466127402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -3416,19 +3416,19 @@
         <v>78299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61311</v>
+        <v>61651</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97388</v>
+        <v>99680</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06361513579976118</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04981346585644467</v>
+        <v>0.0500898843215746</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07912455760491986</v>
+        <v>0.08098671806100252</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>588542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>575485</v>
+        <v>575798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>598159</v>
+        <v>598101</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.957575916375187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9363314030784532</v>
+        <v>0.9368405745654286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.973222319282824</v>
+        <v>0.9731286148240508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>492</v>
@@ -3466,19 +3466,19 @@
         <v>563975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>547139</v>
+        <v>549310</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>576522</v>
+        <v>577533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9152482313900895</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8879256678201479</v>
+        <v>0.8914497533872597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9356106731069137</v>
+        <v>0.9372515542522237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1017</v>
@@ -3487,19 +3487,19 @@
         <v>1152517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1133428</v>
+        <v>1131136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1169505</v>
+        <v>1169165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9363848642002388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9208754423950803</v>
+        <v>0.9190132819389975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9501865341435555</v>
+        <v>0.9499101156784253</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>17784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10324</v>
+        <v>10450</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27357</v>
+        <v>26912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.041513455695483</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0240994961708797</v>
+        <v>0.0243924733690289</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06385793279639226</v>
+        <v>0.06281923081580934</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -3612,19 +3612,19 @@
         <v>43399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31624</v>
+        <v>31656</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57341</v>
+        <v>56943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09691533477558788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07062050328727049</v>
+        <v>0.07069170220877018</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1280504375676783</v>
+        <v>0.1271605914933566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -3633,19 +3633,19 @@
         <v>61183</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46160</v>
+        <v>47166</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76403</v>
+        <v>77579</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06982776242255635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05268223207322711</v>
+        <v>0.05383064444418534</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08719848795515182</v>
+        <v>0.08854016746155355</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>410615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>401042</v>
+        <v>401487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>418075</v>
+        <v>417949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.958486544304517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9361420672036082</v>
+        <v>0.9371807691841909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9759005038291205</v>
+        <v>0.9756075266309713</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>365</v>
@@ -3683,19 +3683,19 @@
         <v>404401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>390459</v>
+        <v>390857</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>416176</v>
+        <v>416144</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9030846652244121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8719495624323217</v>
+        <v>0.8728394085066434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9293794967127296</v>
+        <v>0.9293082977912298</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>740</v>
@@ -3704,19 +3704,19 @@
         <v>815016</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>799796</v>
+        <v>798620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>830039</v>
+        <v>829033</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9301722375774436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9128015120448482</v>
+        <v>0.9114598325384466</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9473177679267729</v>
+        <v>0.9461693555558147</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>25777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16570</v>
+        <v>16136</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38663</v>
+        <v>36530</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08320773688332209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05348756129045687</v>
+        <v>0.05208797309656817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1248063868420624</v>
+        <v>0.1179189958678694</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -3829,19 +3829,19 @@
         <v>57259</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45157</v>
+        <v>44071</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73049</v>
+        <v>72862</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1617494382267307</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.127564774865622</v>
+        <v>0.1244966061540546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2063540770088037</v>
+        <v>0.2058261408802471</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -3850,19 +3850,19 @@
         <v>83035</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65662</v>
+        <v>67759</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101205</v>
+        <v>102294</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1250941400589369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09892164566768563</v>
+        <v>0.1020804425958749</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1524678927482436</v>
+        <v>0.1541085163094943</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>284009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>271123</v>
+        <v>273256</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293216</v>
+        <v>293650</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9167922631166779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8751936131579376</v>
+        <v>0.8820810041321305</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9465124387095433</v>
+        <v>0.9479120269034317</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>288</v>
@@ -3900,19 +3900,19 @@
         <v>296737</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>280947</v>
+        <v>281134</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>308839</v>
+        <v>309925</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8382505617732693</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7936459229911961</v>
+        <v>0.7941738591197529</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.872435225134378</v>
+        <v>0.8755033938459454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>546</v>
@@ -3921,19 +3921,19 @@
         <v>580747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>562577</v>
+        <v>561488</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>598120</v>
+        <v>596023</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8749058599410632</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8475321072517564</v>
+        <v>0.8458914836905059</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9010783543323144</v>
+        <v>0.8979195574041252</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>34047</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23623</v>
+        <v>23441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46837</v>
+        <v>46635</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1367961806477276</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09491436064768373</v>
+        <v>0.09418561043785517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1881876946642193</v>
+        <v>0.1873761811138182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -4046,19 +4046,19 @@
         <v>98564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79556</v>
+        <v>80818</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115278</v>
+        <v>118797</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2541099461233877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2051041024383049</v>
+        <v>0.2083574195167854</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.297198649013294</v>
+        <v>0.3062705442963889</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>118</v>
@@ -4067,19 +4067,19 @@
         <v>132611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111460</v>
+        <v>111320</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>154784</v>
+        <v>155400</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2082569016056894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.175040632754369</v>
+        <v>0.1748209865954251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2430772978115988</v>
+        <v>0.2440453450009974</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>214838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>202048</v>
+        <v>202250</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>225262</v>
+        <v>225444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8632038193522723</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8118123053357822</v>
+        <v>0.8126238188861815</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9050856393523169</v>
+        <v>0.9058143895621448</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>261</v>
@@ -4117,19 +4117,19 @@
         <v>289317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>272603</v>
+        <v>269084</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>308325</v>
+        <v>307063</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7458900538766123</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.702801350986706</v>
+        <v>0.6937294557036111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.794895897561695</v>
+        <v>0.7916425804832146</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>452</v>
@@ -4138,19 +4138,19 @@
         <v>504156</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>481983</v>
+        <v>481367</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>525307</v>
+        <v>525447</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7917430983943107</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7569227021884012</v>
+        <v>0.7559546549990025</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8249593672456307</v>
+        <v>0.8251790134045749</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>158941</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134785</v>
+        <v>134242</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>187089</v>
+        <v>185432</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04642178586886556</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03936657586934775</v>
+        <v>0.03920802502659371</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05464296265538473</v>
+        <v>0.05415908791128235</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>306</v>
@@ -4263,19 +4263,19 @@
         <v>331560</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>298131</v>
+        <v>297330</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>370756</v>
+        <v>369083</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09325918014893159</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08385643015087663</v>
+        <v>0.08363102939344508</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1042838633596499</v>
+        <v>0.1038134439550011</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>452</v>
@@ -4284,19 +4284,19 @@
         <v>490501</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>448297</v>
+        <v>446950</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>541002</v>
+        <v>536990</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07028147173918139</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06423428006184508</v>
+        <v>0.06404127612497502</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07751756224071726</v>
+        <v>0.07694262922515806</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3264895</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3236747</v>
+        <v>3238404</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3289051</v>
+        <v>3289594</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9535782141311344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9453570373446151</v>
+        <v>0.9458409120887171</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9606334241306522</v>
+        <v>0.9607919749734062</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2989</v>
@@ -4334,19 +4334,19 @@
         <v>3223697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3184501</v>
+        <v>3186174</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3257126</v>
+        <v>3257927</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9067408198510685</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8957161366403501</v>
+        <v>0.8961865560449989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9161435698491233</v>
+        <v>0.9163689706065549</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6049</v>
@@ -4355,19 +4355,19 @@
         <v>6488592</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6438091</v>
+        <v>6442103</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6530796</v>
+        <v>6532143</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9297185282608186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9224824377592827</v>
+        <v>0.9230573707748422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9357657199381549</v>
+        <v>0.9359587238750251</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4883</v>
+        <v>5173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002220947628154561</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01164104963880522</v>
+        <v>0.01233138766590598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4723,19 +4723,19 @@
         <v>6115</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2118</v>
+        <v>2058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12292</v>
+        <v>13303</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01545038702966904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005352457807241964</v>
+        <v>0.005199691737351218</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03105935626059955</v>
+        <v>0.03361540290631036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4744,19 +4744,19 @@
         <v>7046</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3079</v>
+        <v>2939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15223</v>
+        <v>13976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008643299465423009</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00377637783138321</v>
+        <v>0.003604938740859714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01867311403088266</v>
+        <v>0.01714412354418163</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>418531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414580</v>
+        <v>414290</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9977790523718454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9883589503611953</v>
+        <v>0.9876686123340931</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>389640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>383463</v>
+        <v>382452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>393637</v>
+        <v>393697</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9845496129703309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9689406437394005</v>
+        <v>0.9663845970936896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9946475421927581</v>
+        <v>0.9948003082626488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>790</v>
@@ -4815,19 +4815,19 @@
         <v>808172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>799995</v>
+        <v>801242</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>812139</v>
+        <v>812279</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.991356700534577</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9813268859691173</v>
+        <v>0.9828558764558183</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962236221686168</v>
+        <v>0.9963950612591402</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>10962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5775</v>
+        <v>5641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19113</v>
+        <v>18732</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01856449573752761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009780208898340447</v>
+        <v>0.00955217970111152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0323669882594182</v>
+        <v>0.03172302907800096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4940,19 +4940,19 @@
         <v>8903</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4102</v>
+        <v>4027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16568</v>
+        <v>16579</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01582613217165816</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007291759067068245</v>
+        <v>0.007157711252182321</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02945039222598898</v>
+        <v>0.02947066456123253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -4961,19 +4961,19 @@
         <v>19865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12939</v>
+        <v>12439</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30456</v>
+        <v>31459</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01722848326969535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01122149040188919</v>
+        <v>0.01078781902566551</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02641321919584243</v>
+        <v>0.02728300980139246</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>579534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>571383</v>
+        <v>571764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>584721</v>
+        <v>584855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9814355042624724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9676330117405818</v>
+        <v>0.968276970921999</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9902197911016596</v>
+        <v>0.9904478202988886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>569</v>
@@ -5011,19 +5011,19 @@
         <v>553660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>545995</v>
+        <v>545984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>558461</v>
+        <v>558536</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9841738678283418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9705496077740116</v>
+        <v>0.9705293354387672</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9927082409329322</v>
+        <v>0.9928422887478177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1125</v>
@@ -5032,19 +5032,19 @@
         <v>1133194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1122603</v>
+        <v>1121600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1140120</v>
+        <v>1140620</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9827715167303046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9735867808041576</v>
+        <v>0.9727169901986077</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9887785095981109</v>
+        <v>0.9892121809743345</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>22935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14083</v>
+        <v>14057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34215</v>
+        <v>34091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03432721988191863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02107786881654306</v>
+        <v>0.02103936951617218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05121028067239815</v>
+        <v>0.05102422109763314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -5157,19 +5157,19 @@
         <v>18412</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10908</v>
+        <v>11356</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28805</v>
+        <v>28910</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02791185897224645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01653614108531917</v>
+        <v>0.01721584131890356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04366750815614391</v>
+        <v>0.04382606507942259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -5178,19 +5178,19 @@
         <v>41347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29171</v>
+        <v>28098</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57252</v>
+        <v>55957</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03114000007767836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02196981254493115</v>
+        <v>0.02116187034575804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04311849185343174</v>
+        <v>0.04214329224318114</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>645189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633909</v>
+        <v>634033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654041</v>
+        <v>654067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9656727801180813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9487897193276019</v>
+        <v>0.948975778902367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9789221311834569</v>
+        <v>0.9789606304838279</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>646</v>
@@ -5228,19 +5228,19 @@
         <v>641242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630849</v>
+        <v>630744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>648746</v>
+        <v>648298</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9720881410277535</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9563324918438564</v>
+        <v>0.9561739349205777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9834638589146809</v>
+        <v>0.9827841586810966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1263</v>
@@ -5249,19 +5249,19 @@
         <v>1286431</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1270526</v>
+        <v>1271821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1298607</v>
+        <v>1299680</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9688599999223216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9568815081465685</v>
+        <v>0.9578567077568189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9780301874550689</v>
+        <v>0.9788381296542419</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>26499</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17640</v>
+        <v>16200</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40084</v>
+        <v>38535</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04101658201397975</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02730451856779202</v>
+        <v>0.0250757686003731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06204552007150785</v>
+        <v>0.05964753124485191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -5374,19 +5374,19 @@
         <v>41411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29485</v>
+        <v>29652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55756</v>
+        <v>55348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06390335075202677</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04549935559663148</v>
+        <v>0.04575801982004484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08604031452447088</v>
+        <v>0.08541050853293466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -5395,19 +5395,19 @@
         <v>67910</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51677</v>
+        <v>52774</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85380</v>
+        <v>85374</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05247742376021079</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03993377106156649</v>
+        <v>0.04078134621535022</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06597747025683083</v>
+        <v>0.06597291719903313</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>619549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605964</v>
+        <v>607513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>628408</v>
+        <v>629848</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9589834179860203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9379544799284925</v>
+        <v>0.9403524687551488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.972695481432208</v>
+        <v>0.9749242313996273</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>562</v>
@@ -5445,19 +5445,19 @@
         <v>606612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>592267</v>
+        <v>592675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>618538</v>
+        <v>618371</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9360966492479732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9139596854755297</v>
+        <v>0.9145894914670655</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9545006444033686</v>
+        <v>0.9542419801799552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1121</v>
@@ -5466,19 +5466,19 @@
         <v>1226161</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1208691</v>
+        <v>1208697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1242394</v>
+        <v>1241297</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9475225762397892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.934022529743169</v>
+        <v>0.9340270828009668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9600662289384334</v>
+        <v>0.9592186537846498</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>19381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11633</v>
+        <v>10896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29910</v>
+        <v>29894</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04055215442652198</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0243407469345789</v>
+        <v>0.02279838369531999</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06258406417570093</v>
+        <v>0.06254972047542043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -5591,19 +5591,19 @@
         <v>37214</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25923</v>
+        <v>27462</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50444</v>
+        <v>52157</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07490021768403887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05217468651450329</v>
+        <v>0.05527148223555663</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1015273776535321</v>
+        <v>0.1049760059877621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -5612,19 +5612,19 @@
         <v>56595</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42482</v>
+        <v>42881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73914</v>
+        <v>74477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05805972385751932</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04358199993430965</v>
+        <v>0.0439911610399053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07582718211113515</v>
+        <v>0.07640507398586124</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>458537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448008</v>
+        <v>448024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>466285</v>
+        <v>467022</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9594478455734781</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9374159358242991</v>
+        <v>0.9374502795245793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.975659253065421</v>
+        <v>0.9772016163046796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>400</v>
@@ -5662,19 +5662,19 @@
         <v>459635</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>446405</v>
+        <v>444692</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>470926</v>
+        <v>469387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9250997823159611</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.898472622346468</v>
+        <v>0.8950239940122381</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9478253134854968</v>
+        <v>0.9447285177644434</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>807</v>
@@ -5683,19 +5683,19 @@
         <v>918172</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>900853</v>
+        <v>900290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>932285</v>
+        <v>931886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9419402761424807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9241728178888651</v>
+        <v>0.9235949260141393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9564180000656906</v>
+        <v>0.9560088389600954</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>13472</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7275</v>
+        <v>7724</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22669</v>
+        <v>23034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04029530744874943</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02175854541072765</v>
+        <v>0.0231028210614057</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06780386300033048</v>
+        <v>0.06889574403301216</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -5808,19 +5808,19 @@
         <v>23222</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15058</v>
+        <v>14371</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34542</v>
+        <v>33643</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06147182431948343</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03986030058083291</v>
+        <v>0.03804350457798462</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09143756493152314</v>
+        <v>0.0890581356356423</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -5829,19 +5829,19 @@
         <v>36694</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25470</v>
+        <v>26198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50689</v>
+        <v>51089</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05152936625395167</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03576836433777376</v>
+        <v>0.03679085740026158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07118266863654013</v>
+        <v>0.07174430085592125</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>320858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>311661</v>
+        <v>311296</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>327055</v>
+        <v>326606</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9597046925512506</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9321961369996695</v>
+        <v>0.9311042559669879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9782414545892724</v>
+        <v>0.9768971789385943</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>332</v>
@@ -5879,19 +5879,19 @@
         <v>354540</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>343220</v>
+        <v>344119</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>362704</v>
+        <v>363391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9385281756805166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9085624350684769</v>
+        <v>0.9109418643643576</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9601396994191671</v>
+        <v>0.9619564954220154</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>644</v>
@@ -5900,19 +5900,19 @@
         <v>675398</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>661403</v>
+        <v>661003</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>686622</v>
+        <v>685894</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9484706337460483</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9288173313634605</v>
+        <v>0.9282556991440788</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9642316356622266</v>
+        <v>0.9632091425997384</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>23401</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15871</v>
+        <v>15354</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32428</v>
+        <v>32929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09105540674508038</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06175374590375922</v>
+        <v>0.0597436771225672</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1261790146648382</v>
+        <v>0.1281302385880447</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -6025,19 +6025,19 @@
         <v>60404</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45705</v>
+        <v>44719</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78954</v>
+        <v>77974</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1514263124056615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1145783997568375</v>
+        <v>0.1121067388081589</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1979314243221546</v>
+        <v>0.195473053431222</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -6046,19 +6046,19 @@
         <v>83805</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66388</v>
+        <v>66640</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104519</v>
+        <v>102968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1277713369468877</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1012170982978702</v>
+        <v>0.1016013944294556</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1593532515710922</v>
+        <v>0.1569883139488355</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>233597</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224570</v>
+        <v>224069</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>241127</v>
+        <v>241644</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9089445932549196</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8738209853351615</v>
+        <v>0.8718697614119552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9382462540962406</v>
+        <v>0.9402563228774328</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>254</v>
@@ -6096,19 +6096,19 @@
         <v>338494</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319944</v>
+        <v>320924</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353193</v>
+        <v>354179</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8485736875943386</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8020685756778454</v>
+        <v>0.8045269465687782</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8854216002431625</v>
+        <v>0.8878932611918415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>529</v>
@@ -6117,19 +6117,19 @@
         <v>572091</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>551377</v>
+        <v>552928</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>589508</v>
+        <v>589256</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8722286630531123</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.840646748428908</v>
+        <v>0.8430116860511646</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8987829017021299</v>
+        <v>0.8983986055705444</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>117581</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97723</v>
+        <v>96235</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139322</v>
+        <v>138360</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03465013591691826</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02879824372799816</v>
+        <v>0.02835955402018472</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04105710951129424</v>
+        <v>0.04077339871287977</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -6242,19 +6242,19 @@
         <v>195680</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>167286</v>
+        <v>168309</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>227223</v>
+        <v>227679</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0552846470732063</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04726268506121068</v>
+        <v>0.04755147765662992</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06419627403786637</v>
+        <v>0.06432513619196539</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>284</v>
@@ -6263,19 +6263,19 @@
         <v>313261</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>277821</v>
+        <v>278933</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>346795</v>
+        <v>349422</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04518485086007707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04007295547795537</v>
+        <v>0.04023335958409779</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05002183748581523</v>
+        <v>0.05040070714477934</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3275797</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3254056</v>
+        <v>3255018</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3295655</v>
+        <v>3297143</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9653498640830818</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9589428904887058</v>
+        <v>0.9592266012871202</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9712017562720018</v>
+        <v>0.9716404459798154</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3161</v>
@@ -6313,19 +6313,19 @@
         <v>3343824</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3312281</v>
+        <v>3311825</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3372218</v>
+        <v>3371195</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9447153529267937</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9358037259621335</v>
+        <v>0.9356748638080346</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9527373149387888</v>
+        <v>0.9524485223433701</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6279</v>
@@ -6334,19 +6334,19 @@
         <v>6619620</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6586086</v>
+        <v>6583459</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6655060</v>
+        <v>6653948</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9548151491399229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9499781625141844</v>
+        <v>0.9495992928552204</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9599270445220446</v>
+        <v>0.9597666404159021</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18343</v>
+        <v>18752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01187428441323942</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04498178606491565</v>
+        <v>0.04598344655086886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5481</v>
+        <v>7435</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0036520542048593</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01511894700724937</v>
+        <v>0.02051051799874588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6723,19 +6723,19 @@
         <v>6166</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18248</v>
+        <v>19097</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008004834304671997</v>
+        <v>0.008004834304671995</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001727625530908421</v>
+        <v>0.001713365052954609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02368955260477036</v>
+        <v>0.0247913350209109</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>402951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389450</v>
+        <v>389041</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.9881257155867607</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9550182139350876</v>
+        <v>0.9540165534491312</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>361188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>357031</v>
+        <v>355077</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6782,7 +6782,7 @@
         <v>0.9963479457951407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9848810529927505</v>
+        <v>0.9794894820012563</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6794,19 +6794,19 @@
         <v>764139</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>752057</v>
+        <v>751208</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768974</v>
+        <v>768985</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9919951656953282</v>
+        <v>0.9919951656953279</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9763104473952294</v>
+        <v>0.9752086649790891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9982723744690917</v>
+        <v>0.9982866349470453</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>21154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11504</v>
+        <v>11691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35146</v>
+        <v>36457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04435865572869763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02412254337348728</v>
+        <v>0.02451511105410157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07369869728956552</v>
+        <v>0.0764468212428233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -6919,19 +6919,19 @@
         <v>16389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9451</v>
+        <v>9387</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26762</v>
+        <v>26087</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03270679555617047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01886172498207918</v>
+        <v>0.01873251316376925</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05340814309834976</v>
+        <v>0.05206204742795235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -6940,19 +6940,19 @@
         <v>37543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24574</v>
+        <v>24424</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53397</v>
+        <v>54953</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0383886054516586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02512705448076638</v>
+        <v>0.02497364680162117</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05459971016002431</v>
+        <v>0.05619090933579043</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>455736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>441744</v>
+        <v>440433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>465386</v>
+        <v>465199</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9556413442713023</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9263013027104346</v>
+        <v>0.9235531787571769</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9758774566265127</v>
+        <v>0.9754848889458986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -6990,19 +6990,19 @@
         <v>484694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474321</v>
+        <v>474996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491632</v>
+        <v>491696</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9672932044438294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9465918569016503</v>
+        <v>0.9479379525720477</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9811382750179208</v>
+        <v>0.9812674868362308</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>734</v>
@@ -7011,19 +7011,19 @@
         <v>940430</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>924576</v>
+        <v>923020</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>953399</v>
+        <v>953549</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9616113945483413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9454002898399756</v>
+        <v>0.9438090906642097</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9748729455192333</v>
+        <v>0.9750263531983797</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>19510</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11649</v>
+        <v>11769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30478</v>
+        <v>29710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03142610598360047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01876330126918193</v>
+        <v>0.01895663514692596</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04909232600234197</v>
+        <v>0.04785399276419895</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -7136,19 +7136,19 @@
         <v>17928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12331</v>
+        <v>11417</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26005</v>
+        <v>26299</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02885223098761159</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01984444087728996</v>
+        <v>0.01837479468034523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04185210991926786</v>
+        <v>0.04232454174219032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -7157,19 +7157,19 @@
         <v>37438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27031</v>
+        <v>28615</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50488</v>
+        <v>50218</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03013862811139409</v>
+        <v>0.03013862811139408</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02176081537104498</v>
+        <v>0.02303600900100429</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04064435124726085</v>
+        <v>0.04042653091471909</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>601327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>590359</v>
+        <v>591127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609188</v>
+        <v>609068</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9685738940163995</v>
+        <v>0.9685738940163996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9509076739976581</v>
+        <v>0.9521460072358011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9812366987308181</v>
+        <v>0.9810433648530741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>820</v>
@@ -7207,19 +7207,19 @@
         <v>603430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595353</v>
+        <v>595059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>609027</v>
+        <v>609941</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9711477690123884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9581478900807322</v>
+        <v>0.9576754582578098</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9801555591227102</v>
+        <v>0.9816252053196548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1349</v>
@@ -7228,19 +7228,19 @@
         <v>1204757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1191707</v>
+        <v>1191977</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1215164</v>
+        <v>1213580</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9698613718886061</v>
+        <v>0.9698613718886058</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9593556487527393</v>
+        <v>0.9595734690852809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9782391846289553</v>
+        <v>0.9769639909989956</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>30243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20124</v>
+        <v>20101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43567</v>
+        <v>44968</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04322365052667733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02876094147330243</v>
+        <v>0.02872887890263609</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06226622895950132</v>
+        <v>0.06426866280291516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -7353,19 +7353,19 @@
         <v>36576</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27268</v>
+        <v>28457</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46429</v>
+        <v>47456</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04971921745805509</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0370665552639743</v>
+        <v>0.03868244333196567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0631130946214889</v>
+        <v>0.06450934952957675</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -7374,19 +7374,19 @@
         <v>66819</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52603</v>
+        <v>51304</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83562</v>
+        <v>81954</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04655280991144209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03664895579865741</v>
+        <v>0.03574368599926172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05821792458432964</v>
+        <v>0.05709750367422421</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>669440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>656116</v>
+        <v>654715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>679559</v>
+        <v>679582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9567763494733226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9377337710404987</v>
+        <v>0.9357313371970848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9712390585266976</v>
+        <v>0.9712711210973638</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1086</v>
@@ -7424,19 +7424,19 @@
         <v>699070</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>689217</v>
+        <v>688190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>708378</v>
+        <v>707189</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9502807825419449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9368869053785112</v>
+        <v>0.9354906504704231</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9629334447360257</v>
+        <v>0.9613175566680344</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1725</v>
@@ -7445,19 +7445,19 @@
         <v>1368511</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1351768</v>
+        <v>1353376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1382727</v>
+        <v>1384026</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9534471900885579</v>
+        <v>0.953447190088558</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9417820754156703</v>
+        <v>0.9429024963257757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9633510442013427</v>
+        <v>0.9642563140007382</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>38697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28520</v>
+        <v>28045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52545</v>
+        <v>50820</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06361890872926797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04688683941701984</v>
+        <v>0.04610623055072007</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08638566119732438</v>
+        <v>0.08354946250913918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -7570,19 +7570,19 @@
         <v>50711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40967</v>
+        <v>40570</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62991</v>
+        <v>62238</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08338321252116278</v>
+        <v>0.08338321252116282</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06736120036866704</v>
+        <v>0.06670767481022206</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1035741852465725</v>
+        <v>0.1023368736994111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>120</v>
@@ -7591,19 +7591,19 @@
         <v>89408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74967</v>
+        <v>75639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106698</v>
+        <v>106267</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07350028906500541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06162820132297286</v>
+        <v>0.06218056679957749</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08771347849244418</v>
+        <v>0.08735937368006703</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>569568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>555720</v>
+        <v>557445</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>579745</v>
+        <v>580220</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9363810912707322</v>
+        <v>0.9363810912707321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9136143388026753</v>
+        <v>0.9164505374908607</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9531131605829802</v>
+        <v>0.9538937694492801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>923</v>
@@ -7641,19 +7641,19 @@
         <v>557459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>545179</v>
+        <v>545932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>567203</v>
+        <v>567600</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.916616787478837</v>
+        <v>0.9166167874788375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8964258147534275</v>
+        <v>0.897663126300589</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.932638799631333</v>
+        <v>0.9332923251897782</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1543</v>
@@ -7662,19 +7662,19 @@
         <v>1127026</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1109736</v>
+        <v>1110167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1141467</v>
+        <v>1140795</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9264997109349946</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.912286521507556</v>
+        <v>0.912640626319933</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9383717986770271</v>
+        <v>0.9378194332004227</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>28269</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21412</v>
+        <v>20650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38622</v>
+        <v>37478</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06972657733555905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05281428015410292</v>
+        <v>0.05093503172106297</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09526293460740881</v>
+        <v>0.09244169559547634</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -7787,19 +7787,19 @@
         <v>39160</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31128</v>
+        <v>30609</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48628</v>
+        <v>48985</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0891688654855561</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07088038258443877</v>
+        <v>0.06969906084579951</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1107286694917123</v>
+        <v>0.1115401903694296</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -7808,19 +7808,19 @@
         <v>67429</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55774</v>
+        <v>56413</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80780</v>
+        <v>82944</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07983610324209907</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06603626495379888</v>
+        <v>0.06679384324399888</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09564458562725489</v>
+        <v>0.0982058883788282</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>377154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>366801</v>
+        <v>367945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>384011</v>
+        <v>384773</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.930273422664441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9047370653925914</v>
+        <v>0.9075583044045235</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9471857198458973</v>
+        <v>0.9490649682789369</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>758</v>
@@ -7858,19 +7858,19 @@
         <v>400006</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>390538</v>
+        <v>390181</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>408038</v>
+        <v>408557</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.910831134514444</v>
+        <v>0.9108311345144439</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8892713305082877</v>
+        <v>0.8884598096305705</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9291196174155611</v>
+        <v>0.9303009391542003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1284</v>
@@ -7879,19 +7879,19 @@
         <v>777160</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>763809</v>
+        <v>761645</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>788815</v>
+        <v>788176</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9201638967579011</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9043554143727451</v>
+        <v>0.9017941116211715</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.933963735046201</v>
+        <v>0.9332061567560012</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>41736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32470</v>
+        <v>31807</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52149</v>
+        <v>51067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1345456482215184</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1046739554875178</v>
+        <v>0.1025392820202486</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1681147548367381</v>
+        <v>0.1646255615684383</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>221</v>
@@ -8004,19 +8004,19 @@
         <v>116063</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101925</v>
+        <v>101884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129953</v>
+        <v>129696</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.250993588299595</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2204193170384528</v>
+        <v>0.2203305386737887</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2810319133915833</v>
+        <v>0.2804770121477426</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>289</v>
@@ -8025,19 +8025,19 @@
         <v>157798</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>141142</v>
+        <v>141411</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>174975</v>
+        <v>175629</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2042404830490302</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1826822169075647</v>
+        <v>0.1830299169448769</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2264726002045995</v>
+        <v>0.2273190718483984</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>268462</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>258049</v>
+        <v>259131</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>277728</v>
+        <v>278391</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8654543517784814</v>
+        <v>0.8654543517784815</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.831885245163261</v>
+        <v>0.8353744384315616</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.895326044512482</v>
+        <v>0.8974607179797512</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>655</v>
@@ -8075,19 +8075,19 @@
         <v>346350</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>332460</v>
+        <v>332717</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>360488</v>
+        <v>360529</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7490064117004049</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7189680866084167</v>
+        <v>0.7195229878522575</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.779580682961547</v>
+        <v>0.7796694613262113</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1045</v>
@@ -8096,19 +8096,19 @@
         <v>614813</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>597636</v>
+        <v>596982</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631469</v>
+        <v>631200</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7957595169509699</v>
+        <v>0.7957595169509697</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7735273997954009</v>
+        <v>0.7726809281516021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8173177830924354</v>
+        <v>0.8169700830551231</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>184452</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157441</v>
+        <v>157665</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>211521</v>
+        <v>209870</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05226604053810154</v>
+        <v>0.05226604053810156</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04461243528177447</v>
+        <v>0.04467593241360743</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0599363896528598</v>
+        <v>0.05946872845355478</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>462</v>
@@ -8221,19 +8221,19 @@
         <v>278150</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>254984</v>
+        <v>253939</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>304431</v>
+        <v>304654</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07456401324854876</v>
+        <v>0.07456401324854875</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06835394631472304</v>
+        <v>0.06807368604966044</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0816093578715457</v>
+        <v>0.08166893341517864</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>671</v>
@@ -8242,19 +8242,19 @@
         <v>462601</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>425735</v>
+        <v>426285</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>502262</v>
+        <v>500697</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06372411909316227</v>
+        <v>0.06372411909316228</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05864573854842128</v>
+        <v>0.05872153202197104</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06918739231743393</v>
+        <v>0.0689718720151057</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3344637</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3317568</v>
+        <v>3319219</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3371648</v>
+        <v>3371424</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9477339594618984</v>
+        <v>0.9477339594618983</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9400636103471403</v>
+        <v>0.9405312715464453</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9553875647182255</v>
+        <v>0.9553240675863925</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4893</v>
@@ -8292,19 +8292,19 @@
         <v>3452198</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3425917</v>
+        <v>3425694</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3475364</v>
+        <v>3476409</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9254359867514512</v>
+        <v>0.9254359867514511</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9183906421284542</v>
+        <v>0.9183310665848214</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.931646053685277</v>
+        <v>0.9319263139503395</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8056</v>
@@ -8313,19 +8313,19 @@
         <v>6796837</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6757176</v>
+        <v>6758741</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6833703</v>
+        <v>6833153</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9362758809068378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9308126076825658</v>
+        <v>0.9310281279848942</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9413542614515789</v>
+        <v>0.9412784679780288</v>
       </c>
     </row>
     <row r="27">
